--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748034.6092510036</v>
+        <v>-750569.5801268585</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>119.9714617240045</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>259.745986536829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247644</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>69.08134245215784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>118.0576045215273</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>234.2607720434798</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>98.66769058038737</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>59.32996291532885</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>378.026822528431</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.195306649292</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>29.28952983701004</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8185470786302</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>363.782235061863</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>140.4573803077761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>46.69986507782623</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>66.24118421664595</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.5813113004308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>62.36981422366921</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>237.7897221092684</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>67.00771475394289</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>103.1686991936197</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5730368512041</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.67382008037378</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>37.17792077063368</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,16 +2770,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>12.74007641194067</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545304</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1682.315766249261</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1324.050067642511</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>938.2618150442665</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>527.275910254659</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.14006334809</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.2912502222418</v>
+        <v>502.6114985197837</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>333.6753155918768</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>333.6753155918768</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>185.7622220094837</v>
       </c>
       <c r="F4" t="n">
         <v>66.5121164321834</v>
@@ -4486,52 +4486,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>417.6040489720648</v>
+        <v>684.2599633500234</v>
       </c>
       <c r="W4" t="n">
-        <v>417.6040489720648</v>
+        <v>684.2599633500234</v>
       </c>
       <c r="X4" t="n">
-        <v>317.9397150524816</v>
+        <v>684.2599633500234</v>
       </c>
       <c r="Y4" t="n">
-        <v>317.9397150524816</v>
+        <v>684.2599633500234</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3155.385897666236</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2824.323010322666</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2824.323010322666</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.4321398396066</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396066</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
         <v>380.4321398396066</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>410.0175235133541</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="W7" t="n">
-        <v>410.0175235133541</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="X7" t="n">
-        <v>380.4321398396066</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.4321398396066</v>
+        <v>675.2351809199101</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.569348694472</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.303650087722</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>747.5153974894774</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>740.569896740274</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>325.4974465852704</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1647.321240915451</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D10" t="n">
         <v>212.7293032143256</v>
@@ -4954,16 +4954,16 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>689.1804068506865</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>467.4137914202125</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>467.4137914202125</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>212.7293032143256</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W10" t="n">
-        <v>212.7293032143256</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X10" t="n">
-        <v>212.7293032143256</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.7293032143256</v>
+        <v>362.8459426266613</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,10 +5057,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,13 +5589,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142544</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142544</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.4446166151475</v>
+        <v>762.5477693179067</v>
       </c>
       <c r="C22" t="n">
-        <v>792.5084336872407</v>
+        <v>593.6115863899998</v>
       </c>
       <c r="D22" t="n">
-        <v>642.3917942749049</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>494.4787006925118</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>347.5887531946014</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.885660588917</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y22" t="n">
-        <v>1143.093081445387</v>
+        <v>762.5477693179067</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>198.0274703142544</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.732795130727</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.315625093766</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6446,52 +6446,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836018</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>248.3972582582391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6854271004372</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138415</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,10 +7126,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,28 +7567,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
         <v>782.551295565682</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>290.950263929449</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>126.4919521192245</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>98.16547864646999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>17.87687128034815</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.2829540756229</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.003342051664</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>104.8770068749586</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856336</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>48.39475227997571</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>79.42624789262628</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>37.12601365260413</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>47.04243616700822</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>181.4067325814611</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>60.33736343303703</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.52575990662486</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.415845301584341e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-4.709566198145672e-13</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-3.836930773104541e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>-9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="D2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="D2" t="n">
-        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
         <v>242143.9799070018</v>
@@ -26326,13 +26326,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="H2" t="n">
+        <v>242143.9799070017</v>
+      </c>
+      <c r="I2" t="n">
         <v>242143.9799070018</v>
-      </c>
-      <c r="H2" t="n">
-        <v>242143.9799070018</v>
-      </c>
-      <c r="I2" t="n">
-        <v>242143.9799070019</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
@@ -26341,7 +26341,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592848</v>
@@ -26353,7 +26353,7 @@
         <v>246312.5309592848</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291435</v>
+        <v>104482.7459291436</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19318.2378118094</v>
+        <v>19318.23781180958</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,7 +26430,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26439,25 +26439,25 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="L4" t="n">
-        <v>16046.58397189196</v>
-      </c>
       <c r="M4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24037.44323498546</v>
+      </c>
+      <c r="P4" t="n">
         <v>24037.44323498543</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498543</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498544</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24037.44323498544</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248725.803975326</v>
+        <v>-1249051.149065608</v>
       </c>
       <c r="C6" t="n">
-        <v>44781.8462938392</v>
+        <v>44781.84629383909</v>
       </c>
       <c r="D6" t="n">
-        <v>44781.84629383888</v>
+        <v>44781.84629383913</v>
       </c>
       <c r="E6" t="n">
-        <v>-200437.5956961526</v>
+        <v>-200472.3336215882</v>
       </c>
       <c r="F6" t="n">
-        <v>124974.8661112027</v>
+        <v>124940.128185767</v>
       </c>
       <c r="G6" t="n">
-        <v>124974.8661112027</v>
+        <v>124940.1281857671</v>
       </c>
       <c r="H6" t="n">
-        <v>124974.8661112029</v>
+        <v>124940.128185767</v>
       </c>
       <c r="I6" t="n">
-        <v>124974.8661112026</v>
+        <v>124940.128185767</v>
       </c>
       <c r="J6" t="n">
-        <v>-92556.33628607471</v>
+        <v>-92591.07421151047</v>
       </c>
       <c r="K6" t="n">
-        <v>124974.8661112027</v>
+        <v>124940.128185767</v>
       </c>
       <c r="L6" t="n">
-        <v>124974.8661112028</v>
+        <v>124940.1281857671</v>
       </c>
       <c r="M6" t="n">
         <v>14628.22594124041</v>
@@ -26558,10 +26558,10 @@
         <v>119110.9718703842</v>
       </c>
       <c r="O6" t="n">
-        <v>119110.971870384</v>
+        <v>119110.9718703839</v>
       </c>
       <c r="P6" t="n">
-        <v>119110.9718703842</v>
+        <v>119110.9718703841</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26793,13 +26793,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.005417971100542e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>27.36344350140395</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>127.0419648086498</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>191.6652090435731</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.211116127622631</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>8.942336674536023</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>196.4201255520271</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>79.78921730869027</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>22.45570359419054</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>49.31164502366576</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>179.0097903112109</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.129107112151092e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>726.7533607666132</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>453.7122424932249</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>584.6193268445949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>322.3705304098916</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
